--- a/datasets/Brasileirao/match_history/teams/ath_paranaense.xlsx
+++ b/datasets/Brasileirao/match_history/teams/ath_paranaense.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P334"/>
+  <dimension ref="A1:R334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,12 +518,20 @@
           <t>team</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>time_diff</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2023-04-15</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45031</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -578,12 +590,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q2" t="n">
+        <v>194</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.8236579042685769</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2023-04-22</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>45038</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -642,12 +658,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q3" t="n">
+        <v>187</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.8294437363854039</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2023-04-29</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>45045</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -706,12 +726,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q4" t="n">
+        <v>180</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.835270211411272</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2023-05-07</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>45053</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -770,12 +794,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q5" t="n">
+        <v>172</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.8419791731684999</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2023-05-10</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>45056</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -834,12 +862,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q6" t="n">
+        <v>169</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.8445089033860343</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2023-05-14</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>45060</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -898,12 +930,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q7" t="n">
+        <v>165</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.8478937040879159</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2023-05-20</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>45066</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -962,12 +998,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q8" t="n">
+        <v>159</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.8529963589691315</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2023-05-27</t>
-        </is>
+      <c r="A9" s="2" t="n">
+        <v>45073</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1026,12 +1066,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q9" t="n">
+        <v>152</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.8589882807411234</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2023-06-03</t>
-        </is>
+      <c r="A10" s="2" t="n">
+        <v>45080</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1090,12 +1134,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q10" t="n">
+        <v>145</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.8650222931107413</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2023-06-11</t>
-        </is>
+      <c r="A11" s="2" t="n">
+        <v>45088</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1154,12 +1202,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q11" t="n">
+        <v>137</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.8719702261321094</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2023-06-21</t>
-        </is>
+      <c r="A12" s="2" t="n">
+        <v>45098</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1218,12 +1270,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q12" t="n">
+        <v>127</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.880733672597157</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2023-06-24</t>
-        </is>
+      <c r="A13" s="2" t="n">
+        <v>45101</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1282,12 +1338,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q13" t="n">
+        <v>124</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.8833798408827509</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2023-07-02</t>
-        </is>
+      <c r="A14" s="2" t="n">
+        <v>45109</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1346,12 +1406,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q14" t="n">
+        <v>116</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.8904752232974726</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2023-07-09</t>
-        </is>
+      <c r="A15" s="2" t="n">
+        <v>45116</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1410,12 +1474,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q15" t="n">
+        <v>109</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.8967304174982355</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2023-07-16</t>
-        </is>
+      <c r="A16" s="2" t="n">
+        <v>45123</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1474,12 +1542,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q16" t="n">
+        <v>102</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.9030295516688768</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2023-07-23</t>
-        </is>
+      <c r="A17" s="2" t="n">
+        <v>45130</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1538,12 +1610,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q17" t="n">
+        <v>95</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.9093729344682314</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2023-07-29</t>
-        </is>
+      <c r="A18" s="2" t="n">
+        <v>45136</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1602,12 +1678,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q18" t="n">
+        <v>89</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.914845573574452</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2023-08-05</t>
-        </is>
+      <c r="A19" s="2" t="n">
+        <v>45143</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1666,12 +1746,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q19" t="n">
+        <v>82</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.9212719586963487</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2023-08-15</t>
-        </is>
+      <c r="A20" s="2" t="n">
+        <v>45153</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1730,12 +1814,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q20" t="n">
+        <v>72</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.9305308958112057</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
+      <c r="A21" s="2" t="n">
+        <v>45159</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1794,12 +1882,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q21" t="n">
+        <v>66</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.9361308642916188</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2023-08-27</t>
-        </is>
+      <c r="A22" s="2" t="n">
+        <v>45165</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1858,12 +1950,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q22" t="n">
+        <v>60</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.9417645335842487</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2023-09-02</t>
-        </is>
+      <c r="A23" s="2" t="n">
+        <v>45171</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1922,12 +2018,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q23" t="n">
+        <v>54</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.9474321065017983</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2023-09-13</t>
-        </is>
+      <c r="A24" s="2" t="n">
+        <v>45182</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1986,12 +2086,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q24" t="n">
+        <v>43</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.9579113900670306</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2023-09-21</t>
-        </is>
+      <c r="A25" s="2" t="n">
+        <v>45190</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2050,12 +2154,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q25" t="n">
+        <v>35</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.9656054162575665</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2023-10-01</t>
-        </is>
+      <c r="A26" s="2" t="n">
+        <v>45200</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2114,12 +2222,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q26" t="n">
+        <v>25</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.9753099120283326</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2023-10-08</t>
-        </is>
+      <c r="A27" s="2" t="n">
+        <v>45207</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2178,12 +2290,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q27" t="n">
+        <v>18</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.9821610323583008</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2023-10-18</t>
-        </is>
+      <c r="A28" s="2" t="n">
+        <v>45217</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2242,12 +2358,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q28" t="n">
+        <v>8</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.9920319148370607</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2023-10-22</t>
-        </is>
+      <c r="A29" s="2" t="n">
+        <v>45221</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2306,12 +2426,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.9960079893439915</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2023-10-25</t>
-        </is>
+      <c r="A30" s="2" t="n">
+        <v>45224</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2370,12 +2494,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.999000499833375</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2022-04-10</t>
-        </is>
+      <c r="A31" s="2" t="n">
+        <v>44661</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2434,12 +2562,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q31" t="n">
+        <v>564</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.5689287911791218</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2022-04-17</t>
-        </is>
+      <c r="A32" s="2" t="n">
+        <v>44668</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2498,12 +2630,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q32" t="n">
+        <v>557</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.5729252640535184</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2022-04-23</t>
-        </is>
+      <c r="A33" s="2" t="n">
+        <v>44674</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2562,12 +2698,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q33" t="n">
+        <v>551</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.5763731489488771</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2022-04-30</t>
-        </is>
+      <c r="A34" s="2" t="n">
+        <v>44681</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2626,12 +2766,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q34" t="n">
+        <v>544</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.5804219151407424</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2022-05-07</t>
-        </is>
+      <c r="A35" s="2" t="n">
+        <v>44688</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2690,12 +2834,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q35" t="n">
+        <v>537</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.5844991221225824</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2022-05-14</t>
-        </is>
+      <c r="A36" s="2" t="n">
+        <v>44695</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2754,12 +2902,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q36" t="n">
+        <v>530</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.5886049696783552</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2022-05-22</t>
-        </is>
+      <c r="A37" s="2" t="n">
+        <v>44703</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2818,12 +2970,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q37" t="n">
+        <v>522</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.593332695123052</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2022-05-29</t>
-        </is>
+      <c r="A38" s="2" t="n">
+        <v>44710</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2882,12 +3038,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q38" t="n">
+        <v>515</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.5975005946182375</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2022-06-04</t>
-        </is>
+      <c r="A39" s="2" t="n">
+        <v>44716</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2946,12 +3106,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q39" t="n">
+        <v>509</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.6010963747389753</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2022-06-08</t>
-        </is>
+      <c r="A40" s="2" t="n">
+        <v>44720</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3010,12 +3174,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q40" t="n">
+        <v>505</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.6035055754270405</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2022-06-12</t>
-        </is>
+      <c r="A41" s="2" t="n">
+        <v>44724</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3074,12 +3242,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q41" t="n">
+        <v>501</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.6059244322171875</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2022-06-15</t>
-        </is>
+      <c r="A42" s="2" t="n">
+        <v>44727</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3138,12 +3310,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q42" t="n">
+        <v>498</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.6077449349024902</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2022-06-19</t>
-        </is>
+      <c r="A43" s="2" t="n">
+        <v>44731</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3202,12 +3378,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q43" t="n">
+        <v>494</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.6101807830906798</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2022-06-25</t>
-        </is>
+      <c r="A44" s="2" t="n">
+        <v>44737</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3266,12 +3446,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q44" t="n">
+        <v>488</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.6138528730428171</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2022-07-02</t>
-        </is>
+      <c r="A45" s="2" t="n">
+        <v>44744</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3330,12 +3514,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q45" t="n">
+        <v>481</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.6181649177029258</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2022-07-09</t>
-        </is>
+      <c r="A46" s="2" t="n">
+        <v>44751</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3394,12 +3582,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q46" t="n">
+        <v>474</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.6225072525676867</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2022-07-16</t>
-        </is>
+      <c r="A47" s="2" t="n">
+        <v>44758</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3458,12 +3650,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q47" t="n">
+        <v>467</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.626880090412377</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2022-07-20</t>
-        </is>
+      <c r="A48" s="2" t="n">
+        <v>44762</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3522,12 +3718,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q48" t="n">
+        <v>463</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.6293926325081629</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2022-07-23</t>
-        </is>
+      <c r="A49" s="2" t="n">
+        <v>44765</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -3586,12 +3786,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q49" t="n">
+        <v>460</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.631283645506926</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2022-07-31</t>
-        </is>
+      <c r="A50" s="2" t="n">
+        <v>44773</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -3650,12 +3854,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q50" t="n">
+        <v>452</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.6363541697250871</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2022-08-07</t>
-        </is>
+      <c r="A51" s="2" t="n">
+        <v>44780</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3714,12 +3922,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q51" t="n">
+        <v>445</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.6408242760323187</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2022-08-14</t>
-        </is>
+      <c r="A52" s="2" t="n">
+        <v>44787</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3778,12 +3990,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q52" t="n">
+        <v>438</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.6453257828572946</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2022-08-21</t>
-        </is>
+      <c r="A53" s="2" t="n">
+        <v>44794</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3842,12 +4058,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q53" t="n">
+        <v>431</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.6498589107747496</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2022-08-27</t>
-        </is>
+      <c r="A54" s="2" t="n">
+        <v>44800</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3906,12 +4126,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q54" t="n">
+        <v>425</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.6537697851298473</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2022-09-03</t>
-        </is>
+      <c r="A55" s="2" t="n">
+        <v>44807</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3970,12 +4194,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q55" t="n">
+        <v>418</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.6583622284248272</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2022-09-11</t>
-        </is>
+      <c r="A56" s="2" t="n">
+        <v>44815</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4034,12 +4262,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q56" t="n">
+        <v>410</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.6636502501363194</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2022-09-18</t>
-        </is>
+      <c r="A57" s="2" t="n">
+        <v>44822</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4098,12 +4330,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q57" t="n">
+        <v>403</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.6683120993235603</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2022-09-27</t>
-        </is>
+      <c r="A58" s="2" t="n">
+        <v>44831</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4162,12 +4398,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q58" t="n">
+        <v>394</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.6743540562404442</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2022-10-01</t>
-        </is>
+      <c r="A59" s="2" t="n">
+        <v>44835</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4226,12 +4466,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q59" t="n">
+        <v>390</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.6770568744981647</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2022-10-05</t>
-        </is>
+      <c r="A60" s="2" t="n">
+        <v>44839</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4290,12 +4534,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q60" t="n">
+        <v>386</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.679770525680321</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2022-10-08</t>
-        </is>
+      <c r="A61" s="2" t="n">
+        <v>44842</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4354,12 +4602,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q61" t="n">
+        <v>383</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.6818128992859905</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>2022-10-16</t>
-        </is>
+      <c r="A62" s="2" t="n">
+        <v>44850</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4418,12 +4670,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q62" t="n">
+        <v>375</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.6872892787909722</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>2022-10-22</t>
-        </is>
+      <c r="A63" s="2" t="n">
+        <v>44856</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4482,12 +4738,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q63" t="n">
+        <v>369</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.6914254104503085</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2022-10-25</t>
-        </is>
+      <c r="A64" s="2" t="n">
+        <v>44859</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -4546,12 +4806,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q64" t="n">
+        <v>366</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.6935028012097558</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2022-11-02</t>
-        </is>
+      <c r="A65" s="2" t="n">
+        <v>44867</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -4610,12 +4874,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q65" t="n">
+        <v>358</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.6990730750065257</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2022-11-05</t>
-        </is>
+      <c r="A66" s="2" t="n">
+        <v>44870</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -4674,12 +4942,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q66" t="n">
+        <v>355</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.7011734432085724</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2022-11-09</t>
-        </is>
+      <c r="A67" s="2" t="n">
+        <v>44874</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -4738,12 +5010,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q67" t="n">
+        <v>351</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.7039837538556208</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2022-11-13</t>
-        </is>
+      <c r="A68" s="2" t="n">
+        <v>44878</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -4802,12 +5078,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q68" t="n">
+        <v>347</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.7068053282577494</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2021-05-30</t>
-        </is>
+      <c r="A69" s="2" t="n">
+        <v>44346</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -4866,12 +5146,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q69" t="n">
+        <v>879</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.4151979020538666</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2021-06-06</t>
-        </is>
+      <c r="A70" s="2" t="n">
+        <v>44353</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -4930,12 +5214,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q70" t="n">
+        <v>872</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.4181144834939193</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2021-06-13</t>
-        </is>
+      <c r="A71" s="2" t="n">
+        <v>44360</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -4994,12 +5282,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q71" t="n">
+        <v>865</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.4210515526273212</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2021-06-20</t>
-        </is>
+      <c r="A72" s="2" t="n">
+        <v>44367</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5058,12 +5350,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q72" t="n">
+        <v>858</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.4240092533710473</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2021-06-24</t>
-        </is>
+      <c r="A73" s="2" t="n">
+        <v>44371</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5122,12 +5418,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q73" t="n">
+        <v>854</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.4257086869858502</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2021-06-27</t>
-        </is>
+      <c r="A74" s="2" t="n">
+        <v>44374</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -5186,12 +5486,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q74" t="n">
+        <v>851</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.4269877306530259</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2021-06-30</t>
-        </is>
+      <c r="A75" s="2" t="n">
+        <v>44377</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -5250,12 +5554,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q75" t="n">
+        <v>848</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.4282706172126597</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2021-07-03</t>
-        </is>
+      <c r="A76" s="2" t="n">
+        <v>44380</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -5314,12 +5622,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q76" t="n">
+        <v>845</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.4295573582107391</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2021-07-06</t>
-        </is>
+      <c r="A77" s="2" t="n">
+        <v>44383</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -5378,12 +5690,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q77" t="n">
+        <v>842</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.4308479652279421</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2021-07-10</t>
-        </is>
+      <c r="A78" s="2" t="n">
+        <v>44387</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -5442,12 +5758,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q78" t="n">
+        <v>838</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.4325748084728867</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2021-07-17</t>
-        </is>
+      <c r="A79" s="2" t="n">
+        <v>44394</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -5506,12 +5826,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q79" t="n">
+        <v>831</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.4356134549872004</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2021-07-25</t>
-        </is>
+      <c r="A80" s="2" t="n">
+        <v>44402</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -5570,12 +5894,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q80" t="n">
+        <v>823</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.4391123395044697</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2021-08-01</t>
-        </is>
+      <c r="A81" s="2" t="n">
+        <v>44409</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -5634,12 +5962,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q81" t="n">
+        <v>816</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.4421969092798986</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2021-08-07</t>
-        </is>
+      <c r="A82" s="2" t="n">
+        <v>44415</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -5698,12 +6030,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q82" t="n">
+        <v>810</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.4448580662229411</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2021-08-15</t>
-        </is>
+      <c r="A83" s="2" t="n">
+        <v>44423</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -5762,12 +6098,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q83" t="n">
+        <v>802</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.4484312042481095</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>2021-08-22</t>
-        </is>
+      <c r="A84" s="2" t="n">
+        <v>44430</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -5826,12 +6166,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q84" t="n">
+        <v>795</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.4515812349225922</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2021-08-28</t>
-        </is>
+      <c r="A85" s="2" t="n">
+        <v>44436</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -5890,12 +6234,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q85" t="n">
+        <v>789</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.4542988670756955</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>2021-09-05</t>
-        </is>
+      <c r="A86" s="2" t="n">
+        <v>44444</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -5954,12 +6302,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q86" t="n">
+        <v>781</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.457947834420542</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>2021-09-11</t>
-        </is>
+      <c r="A87" s="2" t="n">
+        <v>44450</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -6018,12 +6370,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q87" t="n">
+        <v>775</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.4607037809989658</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>2021-09-18</t>
-        </is>
+      <c r="A88" s="2" t="n">
+        <v>44457</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -6082,12 +6438,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q88" t="n">
+        <v>768</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.4639400210916467</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>2021-09-26</t>
-        </is>
+      <c r="A89" s="2" t="n">
+        <v>44465</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -6146,12 +6506,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q89" t="n">
+        <v>760</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.4676664270099092</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>2021-10-03</t>
-        </is>
+      <c r="A90" s="2" t="n">
+        <v>44472</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -6210,12 +6574,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q90" t="n">
+        <v>753</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.4709515766082228</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>2021-10-06</t>
-        </is>
+      <c r="A91" s="2" t="n">
+        <v>44475</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -6274,12 +6642,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q91" t="n">
+        <v>750</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.4723665527410147</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>2021-10-09</t>
-        </is>
+      <c r="A92" s="2" t="n">
+        <v>44478</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -6338,12 +6710,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q92" t="n">
+        <v>747</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.4737857801759698</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>2021-10-13</t>
-        </is>
+      <c r="A93" s="2" t="n">
+        <v>44482</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -6402,12 +6778,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q93" t="n">
+        <v>743</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.4756847186416878</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>2021-10-17</t>
-        </is>
+      <c r="A94" s="2" t="n">
+        <v>44486</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -6466,12 +6846,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q94" t="n">
+        <v>739</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.4775912680730521</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>2021-10-23</t>
-        </is>
+      <c r="A95" s="2" t="n">
+        <v>44492</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -6530,12 +6914,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q95" t="n">
+        <v>733</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.4804654295434223</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>2021-10-30</t>
-        </is>
+      <c r="A96" s="2" t="n">
+        <v>44499</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -6594,12 +6982,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q96" t="n">
+        <v>726</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.483840486467991</v>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>2021-11-02</t>
-        </is>
+      <c r="A97" s="2" t="n">
+        <v>44502</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -6658,12 +7050,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q97" t="n">
+        <v>723</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.4852941873885002</v>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>2021-11-07</t>
-        </is>
+      <c r="A98" s="2" t="n">
+        <v>44507</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -6722,12 +7118,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q98" t="n">
+        <v>718</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.4877267346257312</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>2021-11-10</t>
-        </is>
+      <c r="A99" s="2" t="n">
+        <v>44510</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -6786,12 +7186,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q99" t="n">
+        <v>715</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.4891921117963315</v>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>2021-11-13</t>
-        </is>
+      <c r="A100" s="2" t="n">
+        <v>44513</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -6850,12 +7254,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q100" t="n">
+        <v>712</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.4906618916992401</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>2021-11-16</t>
-        </is>
+      <c r="A101" s="2" t="n">
+        <v>44516</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -6914,12 +7322,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q101" t="n">
+        <v>709</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.492136087562486</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>2021-11-24</t>
-        </is>
+      <c r="A102" s="2" t="n">
+        <v>44524</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -6978,12 +7390,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q102" t="n">
+        <v>701</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.4960889666975264</v>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>2021-11-28</t>
-        </is>
+      <c r="A103" s="2" t="n">
+        <v>44528</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -7042,12 +7458,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q103" t="n">
+        <v>697</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0.4980772965729616</v>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>2021-12-03</t>
-        </is>
+      <c r="A104" s="2" t="n">
+        <v>44533</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -7106,12 +7526,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q104" t="n">
+        <v>692</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0.5005739194116277</v>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>2021-12-06</t>
-        </is>
+      <c r="A105" s="2" t="n">
+        <v>44536</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -7170,12 +7594,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q105" t="n">
+        <v>689</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0.502077896006773</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>2021-12-09</t>
-        </is>
+      <c r="A106" s="2" t="n">
+        <v>44539</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -7234,12 +7662,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q106" t="n">
+        <v>686</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0.5035863913063714</v>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>2020-08-08</t>
-        </is>
+      <c r="A107" s="2" t="n">
+        <v>44051</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -7298,12 +7730,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q107" t="n">
+        <v>1174</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0.3091279531286805</v>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>2020-08-12</t>
-        </is>
+      <c r="A108" s="2" t="n">
+        <v>44055</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -7362,12 +7798,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q108" t="n">
+        <v>1170</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0.310366941265485</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>2020-08-16</t>
-        </is>
+      <c r="A109" s="2" t="n">
+        <v>44059</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -7426,12 +7866,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q109" t="n">
+        <v>1166</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.311610895279971</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>2020-08-19</t>
-        </is>
+      <c r="A110" s="2" t="n">
+        <v>44062</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -7490,12 +7934,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q110" t="n">
+        <v>1163</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0.312547131618141</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>2020-08-22</t>
-        </is>
+      <c r="A111" s="2" t="n">
+        <v>44065</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -7554,12 +8002,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q111" t="n">
+        <v>1160</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0.3134861808826053</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>2020-08-26</t>
-        </is>
+      <c r="A112" s="2" t="n">
+        <v>44069</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -7618,12 +8070,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q112" t="n">
+        <v>1156</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0.3147426368427819</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>2020-09-02</t>
-        </is>
+      <c r="A113" s="2" t="n">
+        <v>44076</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -7682,12 +8138,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q113" t="n">
+        <v>1149</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0.3169535645196029</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>2020-09-06</t>
-        </is>
+      <c r="A114" s="2" t="n">
+        <v>44080</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -7746,12 +8206,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q114" t="n">
+        <v>1145</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0.3182239177904191</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>2020-09-09</t>
-        </is>
+      <c r="A115" s="2" t="n">
+        <v>44083</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -7810,12 +8274,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q115" t="n">
+        <v>1142</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0.3191800229845027</v>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>2020-09-12</t>
-        </is>
+      <c r="A116" s="2" t="n">
+        <v>44086</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -7874,12 +8342,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q116" t="n">
+        <v>1139</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0.3201390008009476</v>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>2020-09-26</t>
-        </is>
+      <c r="A117" s="2" t="n">
+        <v>44100</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -7938,12 +8410,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q117" t="n">
+        <v>1125</v>
+      </c>
+      <c r="R117" t="n">
+        <v>0.3246524673583497</v>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>2020-10-04</t>
-        </is>
+      <c r="A118" s="2" t="n">
+        <v>44108</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -8002,12 +8478,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q118" t="n">
+        <v>1117</v>
+      </c>
+      <c r="R118" t="n">
+        <v>0.3272601037353453</v>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>2020-10-08</t>
-        </is>
+      <c r="A119" s="2" t="n">
+        <v>44112</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -8066,12 +8546,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q119" t="n">
+        <v>1113</v>
+      </c>
+      <c r="R119" t="n">
+        <v>0.3285717657253846</v>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>2020-10-11</t>
-        </is>
+      <c r="A120" s="2" t="n">
+        <v>44115</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -8130,12 +8614,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q120" t="n">
+        <v>1110</v>
+      </c>
+      <c r="R120" t="n">
+        <v>0.3295589610751891</v>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>2020-10-14</t>
-        </is>
+      <c r="A121" s="2" t="n">
+        <v>44118</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -8194,12 +8682,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q121" t="n">
+        <v>1107</v>
+      </c>
+      <c r="R121" t="n">
+        <v>0.3305491224578677</v>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>2020-10-17</t>
-        </is>
+      <c r="A122" s="2" t="n">
+        <v>44121</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -8258,12 +8750,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q122" t="n">
+        <v>1104</v>
+      </c>
+      <c r="R122" t="n">
+        <v>0.3315422587848797</v>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>2020-10-25</t>
-        </is>
+      <c r="A123" s="2" t="n">
+        <v>44129</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -8322,12 +8818,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q123" t="n">
+        <v>1096</v>
+      </c>
+      <c r="R123" t="n">
+        <v>0.3342052345557198</v>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>2020-11-01</t>
-        </is>
+      <c r="A124" s="2" t="n">
+        <v>44136</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -8386,12 +8886,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q124" t="n">
+        <v>1089</v>
+      </c>
+      <c r="R124" t="n">
+        <v>0.336552878364737</v>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>2020-11-07</t>
-        </is>
+      <c r="A125" s="2" t="n">
+        <v>44142</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -8450,12 +8954,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q125" t="n">
+        <v>1083</v>
+      </c>
+      <c r="R125" t="n">
+        <v>0.3385782657208353</v>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>2020-11-14</t>
-        </is>
+      <c r="A126" s="2" t="n">
+        <v>44149</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -8514,12 +9022,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q126" t="n">
+        <v>1076</v>
+      </c>
+      <c r="R126" t="n">
+        <v>0.3409566281377016</v>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>2020-11-18</t>
-        </is>
+      <c r="A127" s="2" t="n">
+        <v>44153</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -8578,12 +9090,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q127" t="n">
+        <v>1072</v>
+      </c>
+      <c r="R127" t="n">
+        <v>0.342323185943788</v>
+      </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>2020-11-21</t>
-        </is>
+      <c r="A128" s="2" t="n">
+        <v>44156</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -8642,12 +9158,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q128" t="n">
+        <v>1069</v>
+      </c>
+      <c r="R128" t="n">
+        <v>0.3433516974975665</v>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>2020-11-28</t>
-        </is>
+      <c r="A129" s="2" t="n">
+        <v>44163</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -8706,12 +9226,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q129" t="n">
+        <v>1062</v>
+      </c>
+      <c r="R129" t="n">
+        <v>0.3457635911593078</v>
+      </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>2020-12-05</t>
-        </is>
+      <c r="A130" s="2" t="n">
+        <v>44170</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -8770,12 +9294,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q130" t="n">
+        <v>1055</v>
+      </c>
+      <c r="R130" t="n">
+        <v>0.3481924273061976</v>
+      </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>2020-12-12</t>
-        </is>
+      <c r="A131" s="2" t="n">
+        <v>44177</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -8834,12 +9362,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q131" t="n">
+        <v>1048</v>
+      </c>
+      <c r="R131" t="n">
+        <v>0.3506383249516929</v>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>2020-12-20</t>
-        </is>
+      <c r="A132" s="2" t="n">
+        <v>44185</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -8898,12 +9430,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q132" t="n">
+        <v>1040</v>
+      </c>
+      <c r="R132" t="n">
+        <v>0.3534546819587802</v>
+      </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>2020-12-27</t>
-        </is>
+      <c r="A133" s="2" t="n">
+        <v>44192</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -8962,12 +9498,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q133" t="n">
+        <v>1033</v>
+      </c>
+      <c r="R133" t="n">
+        <v>0.3559375446134354</v>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>2021-01-06</t>
-        </is>
+      <c r="A134" s="2" t="n">
+        <v>44202</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -9026,12 +9566,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q134" t="n">
+        <v>1023</v>
+      </c>
+      <c r="R134" t="n">
+        <v>0.3595147764083289</v>
+      </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>2021-01-09</t>
-        </is>
+      <c r="A135" s="2" t="n">
+        <v>44205</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -9090,12 +9634,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q135" t="n">
+        <v>1020</v>
+      </c>
+      <c r="R135" t="n">
+        <v>0.3605949401730783</v>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>2021-01-17</t>
-        </is>
+      <c r="A136" s="2" t="n">
+        <v>44213</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -9154,12 +9702,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q136" t="n">
+        <v>1012</v>
+      </c>
+      <c r="R136" t="n">
+        <v>0.3634912695649568</v>
+      </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>2021-01-20</t>
-        </is>
+      <c r="A137" s="2" t="n">
+        <v>44216</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -9218,12 +9770,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q137" t="n">
+        <v>1009</v>
+      </c>
+      <c r="R137" t="n">
+        <v>0.3645833807213029</v>
+      </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>2021-01-24</t>
-        </is>
+      <c r="A138" s="2" t="n">
+        <v>44220</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -9282,12 +9838,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q138" t="n">
+        <v>1005</v>
+      </c>
+      <c r="R138" t="n">
+        <v>0.3660446348040153</v>
+      </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>2021-01-31</t>
-        </is>
+      <c r="A139" s="2" t="n">
+        <v>44227</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -9346,12 +9906,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q139" t="n">
+        <v>998</v>
+      </c>
+      <c r="R139" t="n">
+        <v>0.3686159363034188</v>
+      </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>2021-02-04</t>
-        </is>
+      <c r="A140" s="2" t="n">
+        <v>44231</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -9410,12 +9974,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q140" t="n">
+        <v>994</v>
+      </c>
+      <c r="R140" t="n">
+        <v>0.3700933529119613</v>
+      </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>2021-02-10</t>
-        </is>
+      <c r="A141" s="2" t="n">
+        <v>44237</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -9474,12 +10042,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q141" t="n">
+        <v>988</v>
+      </c>
+      <c r="R141" t="n">
+        <v>0.3723205880531552</v>
+      </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
-        </is>
+      <c r="A142" s="2" t="n">
+        <v>44241</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -9538,12 +10110,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q142" t="n">
+        <v>984</v>
+      </c>
+      <c r="R142" t="n">
+        <v>0.3738128529454665</v>
+      </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>2021-02-21</t>
-        </is>
+      <c r="A143" s="2" t="n">
+        <v>44248</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -9602,12 +10178,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q143" t="n">
+        <v>977</v>
+      </c>
+      <c r="R143" t="n">
+        <v>0.3764387227380659</v>
+      </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>2021-02-25</t>
-        </is>
+      <c r="A144" s="2" t="n">
+        <v>44252</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -9666,12 +10246,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q144" t="n">
+        <v>973</v>
+      </c>
+      <c r="R144" t="n">
+        <v>0.3779474931581651</v>
+      </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>2019-04-28</t>
-        </is>
+      <c r="A145" s="2" t="n">
+        <v>43583</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -9730,12 +10314,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q145" t="n">
+        <v>1642</v>
+      </c>
+      <c r="R145" t="n">
+        <v>0.1935924699078839</v>
+      </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>2019-05-01</t>
-        </is>
+      <c r="A146" s="2" t="n">
+        <v>43586</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -9794,12 +10382,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q146" t="n">
+        <v>1639</v>
+      </c>
+      <c r="R146" t="n">
+        <v>0.194174119355542</v>
+      </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>2019-05-05</t>
-        </is>
+      <c r="A147" s="2" t="n">
+        <v>43590</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -9858,12 +10450,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q147" t="n">
+        <v>1635</v>
+      </c>
+      <c r="R147" t="n">
+        <v>0.1949523712991825</v>
+      </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>2019-05-12</t>
-        </is>
+      <c r="A148" s="2" t="n">
+        <v>43597</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -9922,12 +10518,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q148" t="n">
+        <v>1628</v>
+      </c>
+      <c r="R148" t="n">
+        <v>0.1963218253956815</v>
+      </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>2019-05-19</t>
-        </is>
+      <c r="A149" s="2" t="n">
+        <v>43604</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -9986,12 +10586,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q149" t="n">
+        <v>1621</v>
+      </c>
+      <c r="R149" t="n">
+        <v>0.1977008993009057</v>
+      </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>2019-05-26</t>
-        </is>
+      <c r="A150" s="2" t="n">
+        <v>43611</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -10050,12 +10654,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q150" t="n">
+        <v>1614</v>
+      </c>
+      <c r="R150" t="n">
+        <v>0.1990896605897524</v>
+      </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>2019-06-02</t>
-        </is>
+      <c r="A151" s="2" t="n">
+        <v>43618</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -10114,12 +10722,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q151" t="n">
+        <v>1607</v>
+      </c>
+      <c r="R151" t="n">
+        <v>0.2004881773118026</v>
+      </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>2019-06-08</t>
-        </is>
+      <c r="A152" s="2" t="n">
+        <v>43624</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -10178,12 +10790,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q152" t="n">
+        <v>1601</v>
+      </c>
+      <c r="R152" t="n">
+        <v>0.2016947223912788</v>
+      </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>2019-06-13</t>
-        </is>
+      <c r="A153" s="2" t="n">
+        <v>43629</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -10242,12 +10858,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q153" t="n">
+        <v>1596</v>
+      </c>
+      <c r="R153" t="n">
+        <v>0.2027057213944961</v>
+      </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>2019-07-14</t>
-        </is>
+      <c r="A154" s="2" t="n">
+        <v>43660</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -10306,12 +10926,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q154" t="n">
+        <v>1565</v>
+      </c>
+      <c r="R154" t="n">
+        <v>0.2090880131732829</v>
+      </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>2019-07-20</t>
-        </is>
+      <c r="A155" s="2" t="n">
+        <v>43666</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -10370,12 +10994,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q155" t="n">
+        <v>1559</v>
+      </c>
+      <c r="R155" t="n">
+        <v>0.2103463123750325</v>
+      </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>2019-07-27</t>
-        </is>
+      <c r="A156" s="2" t="n">
+        <v>43673</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -10434,12 +11062,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q156" t="n">
+        <v>1552</v>
+      </c>
+      <c r="R156" t="n">
+        <v>0.2118239020921814</v>
+      </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>2019-08-11</t>
-        </is>
+      <c r="A157" s="2" t="n">
+        <v>43688</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -10498,12 +11130,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q157" t="n">
+        <v>1537</v>
+      </c>
+      <c r="R157" t="n">
+        <v>0.2150252104116543</v>
+      </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>2019-08-17</t>
-        </is>
+      <c r="A158" s="2" t="n">
+        <v>43694</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -10562,12 +11198,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q158" t="n">
+        <v>1531</v>
+      </c>
+      <c r="R158" t="n">
+        <v>0.2163192398804444</v>
+      </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>2019-08-21</t>
-        </is>
+      <c r="A159" s="2" t="n">
+        <v>43698</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -10626,12 +11266,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q159" t="n">
+        <v>1527</v>
+      </c>
+      <c r="R159" t="n">
+        <v>0.2171862497035997</v>
+      </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>2019-08-24</t>
-        </is>
+      <c r="A160" s="2" t="n">
+        <v>43701</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -10690,12 +11334,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q160" t="n">
+        <v>1524</v>
+      </c>
+      <c r="R160" t="n">
+        <v>0.2178387867689058</v>
+      </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>2019-08-31</t>
-        </is>
+      <c r="A161" s="2" t="n">
+        <v>43708</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -10754,12 +11402,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q161" t="n">
+        <v>1517</v>
+      </c>
+      <c r="R161" t="n">
+        <v>0.2193690078015048</v>
+      </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>2019-09-08</t>
-        </is>
+      <c r="A162" s="2" t="n">
+        <v>43716</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -10818,12 +11470,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q162" t="n">
+        <v>1509</v>
+      </c>
+      <c r="R162" t="n">
+        <v>0.2211309984291541</v>
+      </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>2019-09-15</t>
-        </is>
+      <c r="A163" s="2" t="n">
+        <v>43723</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -10882,12 +11538,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q163" t="n">
+        <v>1502</v>
+      </c>
+      <c r="R163" t="n">
+        <v>0.2226843457910951</v>
+      </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>2019-09-22</t>
-        </is>
+      <c r="A164" s="2" t="n">
+        <v>43730</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -10946,12 +11606,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q164" t="n">
+        <v>1495</v>
+      </c>
+      <c r="R164" t="n">
+        <v>0.2242486047305353</v>
+      </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>2019-09-26</t>
-        </is>
+      <c r="A165" s="2" t="n">
+        <v>43734</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -11010,12 +11674,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q165" t="n">
+        <v>1491</v>
+      </c>
+      <c r="R165" t="n">
+        <v>0.2251473955326743</v>
+      </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>2019-09-29</t>
-        </is>
+      <c r="A166" s="2" t="n">
+        <v>43737</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -11074,12 +11742,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q166" t="n">
+        <v>1488</v>
+      </c>
+      <c r="R166" t="n">
+        <v>0.2258238518964759</v>
+      </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>2019-10-05</t>
-        </is>
+      <c r="A167" s="2" t="n">
+        <v>43743</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -11138,12 +11810,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q167" t="n">
+        <v>1482</v>
+      </c>
+      <c r="R167" t="n">
+        <v>0.2271828679790567</v>
+      </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>2019-10-10</t>
-        </is>
+      <c r="A168" s="2" t="n">
+        <v>43748</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -11202,12 +11878,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q168" t="n">
+        <v>1477</v>
+      </c>
+      <c r="R168" t="n">
+        <v>0.2283216268437002</v>
+      </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>2019-10-13</t>
-        </is>
+      <c r="A169" s="2" t="n">
+        <v>43751</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -11266,12 +11946,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q169" t="n">
+        <v>1474</v>
+      </c>
+      <c r="R169" t="n">
+        <v>0.2290076201997705</v>
+      </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>2019-10-17</t>
-        </is>
+      <c r="A170" s="2" t="n">
+        <v>43755</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -11330,12 +12014,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q170" t="n">
+        <v>1470</v>
+      </c>
+      <c r="R170" t="n">
+        <v>0.2299254851867238</v>
+      </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>2019-10-20</t>
-        </is>
+      <c r="A171" s="2" t="n">
+        <v>43758</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -11394,12 +12082,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q171" t="n">
+        <v>1467</v>
+      </c>
+      <c r="R171" t="n">
+        <v>0.2306162973424085</v>
+      </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>2019-10-27</t>
-        </is>
+      <c r="A172" s="2" t="n">
+        <v>43765</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -11458,12 +12150,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q172" t="n">
+        <v>1460</v>
+      </c>
+      <c r="R172" t="n">
+        <v>0.2322362747297588</v>
+      </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>2019-10-31</t>
-        </is>
+      <c r="A173" s="2" t="n">
+        <v>43769</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -11522,12 +12218,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q173" t="n">
+        <v>1456</v>
+      </c>
+      <c r="R173" t="n">
+        <v>0.2331670801985418</v>
+      </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>2019-11-03</t>
-        </is>
+      <c r="A174" s="2" t="n">
+        <v>43772</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -11586,12 +12286,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q174" t="n">
+        <v>1453</v>
+      </c>
+      <c r="R174" t="n">
+        <v>0.2338676317410376</v>
+      </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>2019-11-06</t>
-        </is>
+      <c r="A175" s="2" t="n">
+        <v>43775</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -11650,12 +12354,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q175" t="n">
+        <v>1450</v>
+      </c>
+      <c r="R175" t="n">
+        <v>0.2345702880937977</v>
+      </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>2019-11-10</t>
-        </is>
+      <c r="A176" s="2" t="n">
+        <v>43779</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -11714,12 +12422,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q176" t="n">
+        <v>1446</v>
+      </c>
+      <c r="R176" t="n">
+        <v>0.2355104483130648</v>
+      </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>2019-11-17</t>
-        </is>
+      <c r="A177" s="2" t="n">
+        <v>43786</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -11778,12 +12490,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q177" t="n">
+        <v>1439</v>
+      </c>
+      <c r="R177" t="n">
+        <v>0.237164804944181</v>
+      </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>2019-11-24</t>
-        </is>
+      <c r="A178" s="2" t="n">
+        <v>43793</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -11842,12 +12558,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q178" t="n">
+        <v>1432</v>
+      </c>
+      <c r="R178" t="n">
+        <v>0.2388307826981924</v>
+      </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>2019-11-27</t>
-        </is>
+      <c r="A179" s="2" t="n">
+        <v>43796</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -11906,12 +12626,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q179" t="n">
+        <v>1429</v>
+      </c>
+      <c r="R179" t="n">
+        <v>0.2395483508603542</v>
+      </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>2019-11-30</t>
-        </is>
+      <c r="A180" s="2" t="n">
+        <v>43799</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -11970,12 +12694,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q180" t="n">
+        <v>1426</v>
+      </c>
+      <c r="R180" t="n">
+        <v>0.2402680749592907</v>
+      </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
+      <c r="A181" s="2" t="n">
+        <v>43803</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -12034,12 +12762,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q181" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R181" t="n">
+        <v>0.2412310719691519</v>
+      </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>2019-12-08</t>
-        </is>
+      <c r="A182" s="2" t="n">
+        <v>43807</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -12098,12 +12830,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q182" t="n">
+        <v>1418</v>
+      </c>
+      <c r="R182" t="n">
+        <v>0.2421979286813109</v>
+      </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>2018-04-15</t>
-        </is>
+      <c r="A183" s="2" t="n">
+        <v>43205</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -12158,12 +12894,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q183" t="n">
+        <v>2020</v>
+      </c>
+      <c r="R183" t="n">
+        <v>0.1326554650801217</v>
+      </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>2018-04-22</t>
-        </is>
+      <c r="A184" s="2" t="n">
+        <v>43212</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -12218,12 +12958,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q184" t="n">
+        <v>2013</v>
+      </c>
+      <c r="R184" t="n">
+        <v>0.1335873109913375</v>
+      </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>2018-04-29</t>
-        </is>
+      <c r="A185" s="2" t="n">
+        <v>43219</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -12278,12 +13022,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q185" t="n">
+        <v>2006</v>
+      </c>
+      <c r="R185" t="n">
+        <v>0.1345257027075204</v>
+      </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>2018-05-06</t>
-        </is>
+      <c r="A186" s="2" t="n">
+        <v>43226</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -12338,12 +13086,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q186" t="n">
+        <v>1999</v>
+      </c>
+      <c r="R186" t="n">
+        <v>0.1354706862100524</v>
+      </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>2018-05-13</t>
-        </is>
+      <c r="A187" s="2" t="n">
+        <v>43233</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -12398,12 +13150,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q187" t="n">
+        <v>1992</v>
+      </c>
+      <c r="R187" t="n">
+        <v>0.1364223078033142</v>
+      </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>2018-05-20</t>
-        </is>
+      <c r="A188" s="2" t="n">
+        <v>43240</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -12458,12 +13214,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q188" t="n">
+        <v>1985</v>
+      </c>
+      <c r="R188" t="n">
+        <v>0.1373806141169542</v>
+      </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>2018-05-27</t>
-        </is>
+      <c r="A189" s="2" t="n">
+        <v>43247</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -12518,12 +13278,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q189" t="n">
+        <v>1978</v>
+      </c>
+      <c r="R189" t="n">
+        <v>0.1383456521081736</v>
+      </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>2018-05-31</t>
-        </is>
+      <c r="A190" s="2" t="n">
+        <v>43251</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -12578,12 +13342,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q190" t="n">
+        <v>1974</v>
+      </c>
+      <c r="R190" t="n">
+        <v>0.138900142958987</v>
+      </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>2018-06-03</t>
-        </is>
+      <c r="A191" s="2" t="n">
+        <v>43254</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -12638,12 +13406,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q191" t="n">
+        <v>1971</v>
+      </c>
+      <c r="R191" t="n">
+        <v>0.139317469064027</v>
+      </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>2018-06-06</t>
-        </is>
+      <c r="A192" s="2" t="n">
+        <v>43257</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -12698,12 +13470,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q192" t="n">
+        <v>1968</v>
+      </c>
+      <c r="R192" t="n">
+        <v>0.1397360490272289</v>
+      </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>2018-06-09</t>
-        </is>
+      <c r="A193" s="2" t="n">
+        <v>43260</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -12758,12 +13534,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q193" t="n">
+        <v>1965</v>
+      </c>
+      <c r="R193" t="n">
+        <v>0.1401558866158154</v>
+      </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>2018-06-13</t>
-        </is>
+      <c r="A194" s="2" t="n">
+        <v>43264</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -12818,12 +13598,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q194" t="n">
+        <v>1961</v>
+      </c>
+      <c r="R194" t="n">
+        <v>0.1407176329058639</v>
+      </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>2018-07-19</t>
-        </is>
+      <c r="A195" s="2" t="n">
+        <v>43300</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -12878,12 +13662,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q195" t="n">
+        <v>1925</v>
+      </c>
+      <c r="R195" t="n">
+        <v>0.1458757568562274</v>
+      </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>2018-07-22</t>
-        </is>
+      <c r="A196" s="2" t="n">
+        <v>43303</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -12938,12 +13726,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q196" t="n">
+        <v>1922</v>
+      </c>
+      <c r="R196" t="n">
+        <v>0.1463140412246355</v>
+      </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>2018-07-29</t>
-        </is>
+      <c r="A197" s="2" t="n">
+        <v>43310</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -12998,12 +13790,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q197" t="n">
+        <v>1915</v>
+      </c>
+      <c r="R197" t="n">
+        <v>0.1473418325861619</v>
+      </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>2018-08-04</t>
-        </is>
+      <c r="A198" s="2" t="n">
+        <v>43316</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -13058,12 +13854,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q198" t="n">
+        <v>1909</v>
+      </c>
+      <c r="R198" t="n">
+        <v>0.1482285410469374</v>
+      </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>2018-08-11</t>
-        </is>
+      <c r="A199" s="2" t="n">
+        <v>43323</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -13118,12 +13918,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q199" t="n">
+        <v>1902</v>
+      </c>
+      <c r="R199" t="n">
+        <v>0.1492697809221031</v>
+      </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>2018-08-19</t>
-        </is>
+      <c r="A200" s="2" t="n">
+        <v>43331</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -13178,12 +13982,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q200" t="n">
+        <v>1894</v>
+      </c>
+      <c r="R200" t="n">
+        <v>0.1504687285656736</v>
+      </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>2018-08-25</t>
-        </is>
+      <c r="A201" s="2" t="n">
+        <v>43337</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -13238,12 +14046,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q201" t="n">
+        <v>1888</v>
+      </c>
+      <c r="R201" t="n">
+        <v>0.1513742547991911</v>
+      </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>2018-08-29</t>
-        </is>
+      <c r="A202" s="2" t="n">
+        <v>43341</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -13298,12 +14110,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q202" t="n">
+        <v>1884</v>
+      </c>
+      <c r="R202" t="n">
+        <v>0.1519809644287009</v>
+      </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>2018-09-02</t>
-        </is>
+      <c r="A203" s="2" t="n">
+        <v>43345</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -13358,12 +14174,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q203" t="n">
+        <v>1880</v>
+      </c>
+      <c r="R203" t="n">
+        <v>0.1525901057568839</v>
+      </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>2018-09-05</t>
-        </is>
+      <c r="A204" s="2" t="n">
+        <v>43348</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -13418,12 +14238,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q204" t="n">
+        <v>1877</v>
+      </c>
+      <c r="R204" t="n">
+        <v>0.1530485634168012</v>
+      </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>2018-09-10</t>
-        </is>
+      <c r="A205" s="2" t="n">
+        <v>43353</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -13478,12 +14302,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q205" t="n">
+        <v>1872</v>
+      </c>
+      <c r="R205" t="n">
+        <v>0.1538157225334293</v>
+      </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>2018-09-13</t>
-        </is>
+      <c r="A206" s="2" t="n">
+        <v>43356</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -13538,12 +14366,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q206" t="n">
+        <v>1869</v>
+      </c>
+      <c r="R206" t="n">
+        <v>0.1542778625644712</v>
+      </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>2018-09-16</t>
-        </is>
+      <c r="A207" s="2" t="n">
+        <v>43359</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -13598,12 +14430,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q207" t="n">
+        <v>1866</v>
+      </c>
+      <c r="R207" t="n">
+        <v>0.1547413910973175</v>
+      </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>2018-09-23</t>
-        </is>
+      <c r="A208" s="2" t="n">
+        <v>43366</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -13658,12 +14494,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q208" t="n">
+        <v>1859</v>
+      </c>
+      <c r="R208" t="n">
+        <v>0.1558283808606324</v>
+      </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>2018-09-30</t>
-        </is>
+      <c r="A209" s="2" t="n">
+        <v>43373</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -13718,12 +14558,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q209" t="n">
+        <v>1852</v>
+      </c>
+      <c r="R209" t="n">
+        <v>0.1569230062457882</v>
+      </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>2018-10-06</t>
-        </is>
+      <c r="A210" s="2" t="n">
+        <v>43379</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -13778,12 +14622,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q210" t="n">
+        <v>1846</v>
+      </c>
+      <c r="R210" t="n">
+        <v>0.1578673745550876</v>
+      </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>2018-10-14</t>
-        </is>
+      <c r="A211" s="2" t="n">
+        <v>43387</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -13838,12 +14686,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q211" t="n">
+        <v>1838</v>
+      </c>
+      <c r="R211" t="n">
+        <v>0.1591353788058492</v>
+      </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>2018-10-20</t>
-        </is>
+      <c r="A212" s="2" t="n">
+        <v>43393</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -13898,12 +14750,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q212" t="n">
+        <v>1832</v>
+      </c>
+      <c r="R212" t="n">
+        <v>0.1600930612529801</v>
+      </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>2018-10-27</t>
-        </is>
+      <c r="A213" s="2" t="n">
+        <v>43400</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -13958,12 +14814,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q213" t="n">
+        <v>1825</v>
+      </c>
+      <c r="R213" t="n">
+        <v>0.1612176441297768</v>
+      </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>2018-11-04</t>
-        </is>
+      <c r="A214" s="2" t="n">
+        <v>43408</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -14018,12 +14878,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q214" t="n">
+        <v>1817</v>
+      </c>
+      <c r="R214" t="n">
+        <v>0.1625125580322247</v>
+      </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>2018-11-10</t>
-        </is>
+      <c r="A215" s="2" t="n">
+        <v>43414</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -14078,12 +14942,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q215" t="n">
+        <v>1811</v>
+      </c>
+      <c r="R215" t="n">
+        <v>0.1634905644657009</v>
+      </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>2018-11-14</t>
-        </is>
+      <c r="A216" s="2" t="n">
+        <v>43418</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -14138,12 +15006,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q216" t="n">
+        <v>1807</v>
+      </c>
+      <c r="R216" t="n">
+        <v>0.1641458363937241</v>
+      </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>2018-11-17</t>
-        </is>
+      <c r="A217" s="2" t="n">
+        <v>43421</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -14198,12 +15070,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q217" t="n">
+        <v>1804</v>
+      </c>
+      <c r="R217" t="n">
+        <v>0.1646390132983796</v>
+      </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>2018-11-21</t>
-        </is>
+      <c r="A218" s="2" t="n">
+        <v>43425</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -14258,12 +15134,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q218" t="n">
+        <v>1800</v>
+      </c>
+      <c r="R218" t="n">
+        <v>0.1652988882215865</v>
+      </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>2018-11-25</t>
-        </is>
+      <c r="A219" s="2" t="n">
+        <v>43429</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -14318,12 +15198,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q219" t="n">
+        <v>1796</v>
+      </c>
+      <c r="R219" t="n">
+        <v>0.1659614079305314</v>
+      </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>2018-12-01</t>
-        </is>
+      <c r="A220" s="2" t="n">
+        <v>43435</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -14378,12 +15262,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q220" t="n">
+        <v>1790</v>
+      </c>
+      <c r="R220" t="n">
+        <v>0.1669601696670407</v>
+      </c>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>2017-05-14</t>
-        </is>
+      <c r="A221" s="2" t="n">
+        <v>42869</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -14438,12 +15326,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q221" t="n">
+        <v>2356</v>
+      </c>
+      <c r="R221" t="n">
+        <v>0.09479866045903014</v>
+      </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>2017-05-21</t>
-        </is>
+      <c r="A222" s="2" t="n">
+        <v>42876</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -14498,12 +15390,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q222" t="n">
+        <v>2349</v>
+      </c>
+      <c r="R222" t="n">
+        <v>0.0954645790782451</v>
+      </c>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>2017-05-28</t>
-        </is>
+      <c r="A223" s="2" t="n">
+        <v>42883</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -14558,12 +15454,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q223" t="n">
+        <v>2342</v>
+      </c>
+      <c r="R223" t="n">
+        <v>0.09613517548093582</v>
+      </c>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>2017-06-03</t>
-        </is>
+      <c r="A224" s="2" t="n">
+        <v>42889</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -14618,12 +15518,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q224" t="n">
+        <v>2336</v>
+      </c>
+      <c r="R224" t="n">
+        <v>0.09671372043304398</v>
+      </c>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>2017-06-06</t>
-        </is>
+      <c r="A225" s="2" t="n">
+        <v>42892</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -14678,12 +15582,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q225" t="n">
+        <v>2333</v>
+      </c>
+      <c r="R225" t="n">
+        <v>0.09700429724162336</v>
+      </c>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>2017-06-11</t>
-        </is>
+      <c r="A226" s="2" t="n">
+        <v>42897</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -14738,12 +15646,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q226" t="n">
+        <v>2328</v>
+      </c>
+      <c r="R226" t="n">
+        <v>0.09749053330499859</v>
+      </c>
     </row>
     <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>2017-06-14</t>
-        </is>
+      <c r="A227" s="2" t="n">
+        <v>42900</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -14798,12 +15710,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q227" t="n">
+        <v>2325</v>
+      </c>
+      <c r="R227" t="n">
+        <v>0.09778344405135005</v>
+      </c>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>2017-06-17</t>
-        </is>
+      <c r="A228" s="2" t="n">
+        <v>42903</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -14858,12 +15774,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q228" t="n">
+        <v>2322</v>
+      </c>
+      <c r="R228" t="n">
+        <v>0.09807723484935806</v>
+      </c>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>2017-06-21</t>
-        </is>
+      <c r="A229" s="2" t="n">
+        <v>42907</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -14918,12 +15838,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q229" t="n">
+        <v>2318</v>
+      </c>
+      <c r="R229" t="n">
+        <v>0.09847032945383845</v>
+      </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>2017-06-25</t>
-        </is>
+      <c r="A230" s="2" t="n">
+        <v>42911</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -14978,12 +15902,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q230" t="n">
+        <v>2314</v>
+      </c>
+      <c r="R230" t="n">
+        <v>0.09886499958569081</v>
+      </c>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>2017-07-02</t>
-        </is>
+      <c r="A231" s="2" t="n">
+        <v>42918</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -15038,12 +15966,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q231" t="n">
+        <v>2307</v>
+      </c>
+      <c r="R231" t="n">
+        <v>0.09955948243696745</v>
+      </c>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>2017-07-09</t>
-        </is>
+      <c r="A232" s="2" t="n">
+        <v>42925</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -15098,12 +16030,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q232" t="n">
+        <v>2300</v>
+      </c>
+      <c r="R232" t="n">
+        <v>0.1002588437228037</v>
+      </c>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>2017-07-12</t>
-        </is>
+      <c r="A233" s="2" t="n">
+        <v>42928</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -15158,12 +16094,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q233" t="n">
+        <v>2297</v>
+      </c>
+      <c r="R233" t="n">
+        <v>0.1005600718702723</v>
+      </c>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>2017-07-15</t>
-        </is>
+      <c r="A234" s="2" t="n">
+        <v>42931</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -15218,12 +16158,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q234" t="n">
+        <v>2294</v>
+      </c>
+      <c r="R234" t="n">
+        <v>0.1008622050590664</v>
+      </c>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>2017-07-20</t>
-        </is>
+      <c r="A235" s="2" t="n">
+        <v>42936</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -15278,12 +16222,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q235" t="n">
+        <v>2289</v>
+      </c>
+      <c r="R235" t="n">
+        <v>0.1013677789658502</v>
+      </c>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>2017-07-23</t>
-        </is>
+      <c r="A236" s="2" t="n">
+        <v>42939</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -15338,12 +16286,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q236" t="n">
+        <v>2286</v>
+      </c>
+      <c r="R236" t="n">
+        <v>0.1016723389142504</v>
+      </c>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>2017-07-31</t>
-        </is>
+      <c r="A237" s="2" t="n">
+        <v>42947</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -15398,12 +16350,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q237" t="n">
+        <v>2278</v>
+      </c>
+      <c r="R237" t="n">
+        <v>0.1024889798338291</v>
+      </c>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>2017-08-03</t>
-        </is>
+      <c r="A238" s="2" t="n">
+        <v>42950</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -15458,12 +16414,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q238" t="n">
+        <v>2275</v>
+      </c>
+      <c r="R238" t="n">
+        <v>0.1027969084352864</v>
+      </c>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>2017-08-06</t>
-        </is>
+      <c r="A239" s="2" t="n">
+        <v>42953</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -15518,12 +16478,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q239" t="n">
+        <v>2272</v>
+      </c>
+      <c r="R239" t="n">
+        <v>0.1031057622096134</v>
+      </c>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>2017-08-13</t>
-        </is>
+      <c r="A240" s="2" t="n">
+        <v>42960</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -15578,12 +16542,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q240" t="n">
+        <v>2265</v>
+      </c>
+      <c r="R240" t="n">
+        <v>0.1038300345407969</v>
+      </c>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>2017-08-20</t>
-        </is>
+      <c r="A241" s="2" t="n">
+        <v>42967</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -15638,12 +16606,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q241" t="n">
+        <v>2258</v>
+      </c>
+      <c r="R241" t="n">
+        <v>0.1045593945644476</v>
+      </c>
     </row>
     <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>2017-08-27</t>
-        </is>
+      <c r="A242" s="2" t="n">
+        <v>42974</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -15698,12 +16670,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q242" t="n">
+        <v>2251</v>
+      </c>
+      <c r="R242" t="n">
+        <v>0.1052938780193526</v>
+      </c>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>2017-09-10</t>
-        </is>
+      <c r="A243" s="2" t="n">
+        <v>42988</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -15758,12 +16734,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q243" t="n">
+        <v>2237</v>
+      </c>
+      <c r="R243" t="n">
+        <v>0.1067783594350831</v>
+      </c>
     </row>
     <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>2017-09-17</t>
-        </is>
+      <c r="A244" s="2" t="n">
+        <v>42995</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -15818,12 +16798,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q244" t="n">
+        <v>2230</v>
+      </c>
+      <c r="R244" t="n">
+        <v>0.107528430135795</v>
+      </c>
     </row>
     <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>2017-09-23</t>
-        </is>
+      <c r="A245" s="2" t="n">
+        <v>43001</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -15878,12 +16862,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q245" t="n">
+        <v>2224</v>
+      </c>
+      <c r="R245" t="n">
+        <v>0.1081755401051891</v>
+      </c>
     </row>
     <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>2017-10-01</t>
-        </is>
+      <c r="A246" s="2" t="n">
+        <v>43009</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -15938,12 +16926,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q246" t="n">
+        <v>2216</v>
+      </c>
+      <c r="R246" t="n">
+        <v>0.109044415292785</v>
+      </c>
     </row>
     <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>2017-10-11</t>
-        </is>
+      <c r="A247" s="2" t="n">
+        <v>43019</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -15998,12 +16990,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q247" t="n">
+        <v>2206</v>
+      </c>
+      <c r="R247" t="n">
+        <v>0.1101403298860729</v>
+      </c>
     </row>
     <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>2017-10-14</t>
-        </is>
+      <c r="A248" s="2" t="n">
+        <v>43022</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -16058,12 +17054,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q248" t="n">
+        <v>2203</v>
+      </c>
+      <c r="R248" t="n">
+        <v>0.1104712470032191</v>
+      </c>
     </row>
     <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>2017-10-19</t>
-        </is>
+      <c r="A249" s="2" t="n">
+        <v>43027</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -16118,12 +17118,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q249" t="n">
+        <v>2198</v>
+      </c>
+      <c r="R249" t="n">
+        <v>0.1110249864331867</v>
+      </c>
     </row>
     <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>2017-10-22</t>
-        </is>
+      <c r="A250" s="2" t="n">
+        <v>43030</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -16178,12 +17182,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q250" t="n">
+        <v>2195</v>
+      </c>
+      <c r="R250" t="n">
+        <v>0.1113585615049126</v>
+      </c>
     </row>
     <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>2017-10-28</t>
-        </is>
+      <c r="A251" s="2" t="n">
+        <v>43036</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -16238,12 +17246,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q251" t="n">
+        <v>2189</v>
+      </c>
+      <c r="R251" t="n">
+        <v>0.112028721342978</v>
+      </c>
     </row>
     <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>2017-11-05</t>
-        </is>
+      <c r="A252" s="2" t="n">
+        <v>43044</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -16298,12 +17310,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q252" t="n">
+        <v>2181</v>
+      </c>
+      <c r="R252" t="n">
+        <v>0.1129285456117392</v>
+      </c>
     </row>
     <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>2017-11-08</t>
-        </is>
+      <c r="A253" s="2" t="n">
+        <v>43047</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -16358,12 +17374,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q253" t="n">
+        <v>2178</v>
+      </c>
+      <c r="R253" t="n">
+        <v>0.1132678399355895</v>
+      </c>
     </row>
     <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>2017-11-11</t>
-        </is>
+      <c r="A254" s="2" t="n">
+        <v>43050</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -16418,12 +17438,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q254" t="n">
+        <v>2175</v>
+      </c>
+      <c r="R254" t="n">
+        <v>0.1136081536707637</v>
+      </c>
     </row>
     <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>2017-11-15</t>
-        </is>
+      <c r="A255" s="2" t="n">
+        <v>43054</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -16478,12 +17502,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q255" t="n">
+        <v>2171</v>
+      </c>
+      <c r="R255" t="n">
+        <v>0.1140634963637092</v>
+      </c>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>2017-11-19</t>
-        </is>
+      <c r="A256" s="2" t="n">
+        <v>43058</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -16538,12 +17566,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q256" t="n">
+        <v>2167</v>
+      </c>
+      <c r="R256" t="n">
+        <v>0.1145206640750299</v>
+      </c>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>2017-11-26</t>
-        </is>
+      <c r="A257" s="2" t="n">
+        <v>43065</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -16598,12 +17630,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q257" t="n">
+        <v>2160</v>
+      </c>
+      <c r="R257" t="n">
+        <v>0.1153251210380625</v>
+      </c>
     </row>
     <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>2017-12-03</t>
-        </is>
+      <c r="A258" s="2" t="n">
+        <v>43072</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -16658,12 +17694,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q258" t="n">
+        <v>2153</v>
+      </c>
+      <c r="R258" t="n">
+        <v>0.1161352289551006</v>
+      </c>
     </row>
     <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>2016-05-14</t>
-        </is>
+      <c r="A259" s="2" t="n">
+        <v>42504</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -16718,12 +17758,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q259" t="n">
+        <v>2721</v>
+      </c>
+      <c r="R259" t="n">
+        <v>0.06580891259837739</v>
+      </c>
     </row>
     <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>2016-05-22</t>
-        </is>
+      <c r="A260" s="2" t="n">
+        <v>42512</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -16778,12 +17822,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q260" t="n">
+        <v>2713</v>
+      </c>
+      <c r="R260" t="n">
+        <v>0.06633749541131082</v>
+      </c>
     </row>
     <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>2016-05-25</t>
-        </is>
+      <c r="A261" s="2" t="n">
+        <v>42515</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -16838,12 +17886,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q261" t="n">
+        <v>2710</v>
+      </c>
+      <c r="R261" t="n">
+        <v>0.06653680671501686</v>
+      </c>
     </row>
     <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>2016-05-28</t>
-        </is>
+      <c r="A262" s="2" t="n">
+        <v>42518</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -16898,12 +17950,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q262" t="n">
+        <v>2707</v>
+      </c>
+      <c r="R262" t="n">
+        <v>0.06673671685043246</v>
+      </c>
     </row>
     <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>2016-06-01</t>
-        </is>
+      <c r="A263" s="2" t="n">
+        <v>42522</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -16958,12 +18014,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q263" t="n">
+        <v>2703</v>
+      </c>
+      <c r="R263" t="n">
+        <v>0.06700419832413973</v>
+      </c>
     </row>
     <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>2016-06-04</t>
-        </is>
+      <c r="A264" s="2" t="n">
+        <v>42525</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -17018,12 +18078,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q264" t="n">
+        <v>2700</v>
+      </c>
+      <c r="R264" t="n">
+        <v>0.06720551273974976</v>
+      </c>
     </row>
     <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>2016-06-11</t>
-        </is>
+      <c r="A265" s="2" t="n">
+        <v>42532</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -17078,12 +18142,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q265" t="n">
+        <v>2693</v>
+      </c>
+      <c r="R265" t="n">
+        <v>0.06767760171263805</v>
+      </c>
     </row>
     <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>2016-06-15</t>
-        </is>
+      <c r="A266" s="2" t="n">
+        <v>42536</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -17138,12 +18206,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q266" t="n">
+        <v>2689</v>
+      </c>
+      <c r="R266" t="n">
+        <v>0.0679488542629192</v>
+      </c>
     </row>
     <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>2016-06-18</t>
-        </is>
+      <c r="A267" s="2" t="n">
+        <v>42539</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -17198,12 +18270,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q267" t="n">
+        <v>2686</v>
+      </c>
+      <c r="R267" t="n">
+        <v>0.06815300690155146</v>
+      </c>
     </row>
     <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>2016-06-23</t>
-        </is>
+      <c r="A268" s="2" t="n">
+        <v>42544</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -17258,12 +18334,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q268" t="n">
+        <v>2681</v>
+      </c>
+      <c r="R268" t="n">
+        <v>0.06849462527027637</v>
+      </c>
     </row>
     <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>2016-06-26</t>
-        </is>
+      <c r="A269" s="2" t="n">
+        <v>42547</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -17318,12 +18398,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q269" t="n">
+        <v>2678</v>
+      </c>
+      <c r="R269" t="n">
+        <v>0.06870041768035805</v>
+      </c>
     </row>
     <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>2016-06-29</t>
-        </is>
+      <c r="A270" s="2" t="n">
+        <v>42550</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -17378,12 +18462,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q270" t="n">
+        <v>2675</v>
+      </c>
+      <c r="R270" t="n">
+        <v>0.06890682839466256</v>
+      </c>
     </row>
     <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>2016-07-02</t>
-        </is>
+      <c r="A271" s="2" t="n">
+        <v>42553</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -17438,12 +18526,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q271" t="n">
+        <v>2672</v>
+      </c>
+      <c r="R271" t="n">
+        <v>0.06911385927088776</v>
+      </c>
     </row>
     <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>2016-07-11</t>
-        </is>
+      <c r="A272" s="2" t="n">
+        <v>42562</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -17498,12 +18590,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q272" t="n">
+        <v>2663</v>
+      </c>
+      <c r="R272" t="n">
+        <v>0.06973869153188816</v>
+      </c>
     </row>
     <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>2016-07-17</t>
-        </is>
+      <c r="A273" s="2" t="n">
+        <v>42568</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -17558,12 +18654,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q273" t="n">
+        <v>2657</v>
+      </c>
+      <c r="R273" t="n">
+        <v>0.0701583814918904</v>
+      </c>
     </row>
     <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>2016-07-24</t>
-        </is>
+      <c r="A274" s="2" t="n">
+        <v>42575</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -17618,12 +18718,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q274" t="n">
+        <v>2650</v>
+      </c>
+      <c r="R274" t="n">
+        <v>0.0706512130604296</v>
+      </c>
     </row>
     <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>2016-07-30</t>
-        </is>
+      <c r="A275" s="2" t="n">
+        <v>42581</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -17678,12 +18782,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q275" t="n">
+        <v>2644</v>
+      </c>
+      <c r="R275" t="n">
+        <v>0.07107639460789066</v>
+      </c>
     </row>
     <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>2016-08-03</t>
-        </is>
+      <c r="A276" s="2" t="n">
+        <v>42585</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -17738,12 +18846,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q276" t="n">
+        <v>2640</v>
+      </c>
+      <c r="R276" t="n">
+        <v>0.07136126955638605</v>
+      </c>
     </row>
     <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>2016-08-06</t>
-        </is>
+      <c r="A277" s="2" t="n">
+        <v>42588</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -17798,12 +18910,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q277" t="n">
+        <v>2637</v>
+      </c>
+      <c r="R277" t="n">
+        <v>0.07157567481213492</v>
+      </c>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>2016-08-14</t>
-        </is>
+      <c r="A278" s="2" t="n">
+        <v>42596</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -17858,12 +18974,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q278" t="n">
+        <v>2629</v>
+      </c>
+      <c r="R278" t="n">
+        <v>0.07215057675225206</v>
+      </c>
     </row>
     <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>2016-08-21</t>
-        </is>
+      <c r="A279" s="2" t="n">
+        <v>42603</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -17918,12 +19038,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q279" t="n">
+        <v>2622</v>
+      </c>
+      <c r="R279" t="n">
+        <v>0.07265740261048442</v>
+      </c>
     </row>
     <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>2016-08-29</t>
-        </is>
+      <c r="A280" s="2" t="n">
+        <v>42611</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -17978,12 +19102,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q280" t="n">
+        <v>2614</v>
+      </c>
+      <c r="R280" t="n">
+        <v>0.07324099308077024</v>
+      </c>
     </row>
     <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>2016-09-07</t>
-        </is>
+      <c r="A281" s="2" t="n">
+        <v>42620</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -18038,12 +19166,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q281" t="n">
+        <v>2605</v>
+      </c>
+      <c r="R281" t="n">
+        <v>0.07390313719755595</v>
+      </c>
     </row>
     <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>2016-09-11</t>
-        </is>
+      <c r="A282" s="2" t="n">
+        <v>42624</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -18098,12 +19230,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q282" t="n">
+        <v>2601</v>
+      </c>
+      <c r="R282" t="n">
+        <v>0.07419934176053282</v>
+      </c>
     </row>
     <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>2016-09-14</t>
-        </is>
+      <c r="A283" s="2" t="n">
+        <v>42627</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -18158,12 +19294,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q283" t="n">
+        <v>2598</v>
+      </c>
+      <c r="R283" t="n">
+        <v>0.07442227401699995</v>
+      </c>
     </row>
     <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>2016-09-18</t>
-        </is>
+      <c r="A284" s="2" t="n">
+        <v>42631</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -18218,12 +19358,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q284" t="n">
+        <v>2594</v>
+      </c>
+      <c r="R284" t="n">
+        <v>0.07472055928589216</v>
+      </c>
     </row>
     <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>2016-09-25</t>
-        </is>
+      <c r="A285" s="2" t="n">
+        <v>42638</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -18278,12 +19422,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q285" t="n">
+        <v>2587</v>
+      </c>
+      <c r="R285" t="n">
+        <v>0.07524543813360683</v>
+      </c>
     </row>
     <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>2016-10-01</t>
-        </is>
+      <c r="A286" s="2" t="n">
+        <v>42644</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -18338,12 +19486,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q286" t="n">
+        <v>2581</v>
+      </c>
+      <c r="R286" t="n">
+        <v>0.07569826789319881</v>
+      </c>
     </row>
     <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>2016-10-05</t>
-        </is>
+      <c r="A287" s="2" t="n">
+        <v>42648</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -18398,12 +19550,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q287" t="n">
+        <v>2577</v>
+      </c>
+      <c r="R287" t="n">
+        <v>0.07600166735917104</v>
+      </c>
     </row>
     <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>2016-10-13</t>
-        </is>
+      <c r="A288" s="2" t="n">
+        <v>42656</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -18458,12 +19614,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q288" t="n">
+        <v>2569</v>
+      </c>
+      <c r="R288" t="n">
+        <v>0.07661211924986724</v>
+      </c>
     </row>
     <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>2016-10-16</t>
-        </is>
+      <c r="A289" s="2" t="n">
+        <v>42659</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -18518,12 +19678,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q289" t="n">
+        <v>2566</v>
+      </c>
+      <c r="R289" t="n">
+        <v>0.07684230070716673</v>
+      </c>
     </row>
     <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>2016-10-24</t>
-        </is>
+      <c r="A290" s="2" t="n">
+        <v>42667</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -18578,12 +19742,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q290" t="n">
+        <v>2558</v>
+      </c>
+      <c r="R290" t="n">
+        <v>0.07745950463679176</v>
+      </c>
     </row>
     <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>2016-10-29</t>
-        </is>
+      <c r="A291" s="2" t="n">
+        <v>42672</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -18638,12 +19806,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q291" t="n">
+        <v>2553</v>
+      </c>
+      <c r="R291" t="n">
+        <v>0.07784777201954257</v>
+      </c>
     </row>
     <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>2016-11-06</t>
-        </is>
+      <c r="A292" s="2" t="n">
+        <v>42680</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -18698,12 +19870,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q292" t="n">
+        <v>2545</v>
+      </c>
+      <c r="R292" t="n">
+        <v>0.07847305198072073</v>
+      </c>
     </row>
     <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>2016-11-15</t>
-        </is>
+      <c r="A293" s="2" t="n">
+        <v>42689</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -18758,12 +19934,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q293" t="n">
+        <v>2536</v>
+      </c>
+      <c r="R293" t="n">
+        <v>0.07918249716311948</v>
+      </c>
     </row>
     <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>2016-11-20</t>
-        </is>
+      <c r="A294" s="2" t="n">
+        <v>42694</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -18818,12 +19998,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q294" t="n">
+        <v>2531</v>
+      </c>
+      <c r="R294" t="n">
+        <v>0.07957940108184908</v>
+      </c>
     </row>
     <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>2016-11-26</t>
-        </is>
+      <c r="A295" s="2" t="n">
+        <v>42700</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -18878,12 +20062,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q295" t="n">
+        <v>2525</v>
+      </c>
+      <c r="R295" t="n">
+        <v>0.08005831278672054</v>
+      </c>
     </row>
     <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>2016-12-11</t>
-        </is>
+      <c r="A296" s="2" t="n">
+        <v>42715</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -18938,12 +20126,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q296" t="n">
+        <v>2510</v>
+      </c>
+      <c r="R296" t="n">
+        <v>0.08126823924089167</v>
+      </c>
     </row>
     <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>2015-05-10</t>
-        </is>
+      <c r="A297" s="2" t="n">
+        <v>42134</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -18994,12 +20186,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q297" t="n">
+        <v>3091</v>
+      </c>
+      <c r="R297" t="n">
+        <v>0.04545647519361237</v>
+      </c>
     </row>
     <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>2015-05-16</t>
-        </is>
+      <c r="A298" s="2" t="n">
+        <v>42140</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -19050,12 +20246,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q298" t="n">
+        <v>3085</v>
+      </c>
+      <c r="R298" t="n">
+        <v>0.04573003390021825</v>
+      </c>
     </row>
     <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>2015-05-24</t>
-        </is>
+      <c r="A299" s="2" t="n">
+        <v>42148</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -19106,12 +20306,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q299" t="n">
+        <v>3077</v>
+      </c>
+      <c r="R299" t="n">
+        <v>0.04609734144261812</v>
+      </c>
     </row>
     <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>2015-05-30</t>
-        </is>
+      <c r="A300" s="2" t="n">
+        <v>42154</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -19162,12 +20366,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q300" t="n">
+        <v>3071</v>
+      </c>
+      <c r="R300" t="n">
+        <v>0.04637475690541633</v>
+      </c>
     </row>
     <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>2015-06-03</t>
-        </is>
+      <c r="A301" s="2" t="n">
+        <v>42158</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -19218,12 +20426,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q301" t="n">
+        <v>3067</v>
+      </c>
+      <c r="R301" t="n">
+        <v>0.04656062742625237</v>
+      </c>
     </row>
     <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>2015-06-06</t>
-        </is>
+      <c r="A302" s="2" t="n">
+        <v>42161</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -19274,12 +20486,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q302" t="n">
+        <v>3064</v>
+      </c>
+      <c r="R302" t="n">
+        <v>0.04670051904103461</v>
+      </c>
     </row>
     <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>2015-06-14</t>
-        </is>
+      <c r="A303" s="2" t="n">
+        <v>42169</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -19330,12 +20546,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q303" t="n">
+        <v>3056</v>
+      </c>
+      <c r="R303" t="n">
+        <v>0.04707562160306615</v>
+      </c>
     </row>
     <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>2015-06-21</t>
-        </is>
+      <c r="A304" s="2" t="n">
+        <v>42176</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -19386,12 +20606,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q304" t="n">
+        <v>3049</v>
+      </c>
+      <c r="R304" t="n">
+        <v>0.04740630700288939</v>
+      </c>
     </row>
     <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>2015-06-28</t>
-        </is>
+      <c r="A305" s="2" t="n">
+        <v>42183</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -19442,12 +20666,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q305" t="n">
+        <v>3042</v>
+      </c>
+      <c r="R305" t="n">
+        <v>0.04773931532124098</v>
+      </c>
     </row>
     <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>2015-07-01</t>
-        </is>
+      <c r="A306" s="2" t="n">
+        <v>42186</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -19498,12 +20726,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q306" t="n">
+        <v>3039</v>
+      </c>
+      <c r="R306" t="n">
+        <v>0.04788274830911178</v>
+      </c>
     </row>
     <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>2015-07-04</t>
-        </is>
+      <c r="A307" s="2" t="n">
+        <v>42189</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -19554,12 +20786,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q307" t="n">
+        <v>3036</v>
+      </c>
+      <c r="R307" t="n">
+        <v>0.04802661224204059</v>
+      </c>
     </row>
     <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>2015-07-09</t>
-        </is>
+      <c r="A308" s="2" t="n">
+        <v>42194</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -19610,12 +20846,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q308" t="n">
+        <v>3031</v>
+      </c>
+      <c r="R308" t="n">
+        <v>0.04826734663771017</v>
+      </c>
     </row>
     <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>2015-07-12</t>
-        </is>
+      <c r="A309" s="2" t="n">
+        <v>42197</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -19666,12 +20906,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q309" t="n">
+        <v>3028</v>
+      </c>
+      <c r="R309" t="n">
+        <v>0.04841236609804924</v>
+      </c>
     </row>
     <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>2015-07-19</t>
-        </is>
+      <c r="A310" s="2" t="n">
+        <v>42204</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -19722,12 +20966,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q310" t="n">
+        <v>3021</v>
+      </c>
+      <c r="R310" t="n">
+        <v>0.04875244153612863</v>
+      </c>
     </row>
     <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>2015-07-25</t>
-        </is>
+      <c r="A311" s="2" t="n">
+        <v>42210</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -19778,12 +21026,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q311" t="n">
+        <v>3015</v>
+      </c>
+      <c r="R311" t="n">
+        <v>0.04904583548701673</v>
+      </c>
     </row>
     <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>2015-08-02</t>
-        </is>
+      <c r="A312" s="2" t="n">
+        <v>42218</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -19834,12 +21086,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q312" t="n">
+        <v>3007</v>
+      </c>
+      <c r="R312" t="n">
+        <v>0.04943977583127698</v>
+      </c>
     </row>
     <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>2015-08-09</t>
-        </is>
+      <c r="A313" s="2" t="n">
+        <v>42225</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -19890,12 +21146,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q313" t="n">
+        <v>3000</v>
+      </c>
+      <c r="R313" t="n">
+        <v>0.04978706836786394</v>
+      </c>
     </row>
     <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>2015-08-12</t>
-        </is>
+      <c r="A314" s="2" t="n">
+        <v>42228</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -19946,12 +21206,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q314" t="n">
+        <v>2997</v>
+      </c>
+      <c r="R314" t="n">
+        <v>0.04993665383898514</v>
+      </c>
     </row>
     <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>2015-08-15</t>
-        </is>
+      <c r="A315" s="2" t="n">
+        <v>42231</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -20002,12 +21266,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q315" t="n">
+        <v>2994</v>
+      </c>
+      <c r="R315" t="n">
+        <v>0.05008668874032793</v>
+      </c>
     </row>
     <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>2015-08-23</t>
-        </is>
+      <c r="A316" s="2" t="n">
+        <v>42239</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -20058,12 +21326,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q316" t="n">
+        <v>2986</v>
+      </c>
+      <c r="R316" t="n">
+        <v>0.05048898930691617</v>
+      </c>
     </row>
     <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>2015-08-30</t>
-        </is>
+      <c r="A317" s="2" t="n">
+        <v>42246</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -20114,12 +21386,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q317" t="n">
+        <v>2979</v>
+      </c>
+      <c r="R317" t="n">
+        <v>0.05084365210364792</v>
+      </c>
     </row>
     <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>2015-09-02</t>
-        </is>
+      <c r="A318" s="2" t="n">
+        <v>42249</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -20170,12 +21446,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q318" t="n">
+        <v>2976</v>
+      </c>
+      <c r="R318" t="n">
+        <v>0.05099641208536147</v>
+      </c>
     </row>
     <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>2015-09-05</t>
-        </is>
+      <c r="A319" s="2" t="n">
+        <v>42252</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -20226,12 +21506,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q319" t="n">
+        <v>2973</v>
+      </c>
+      <c r="R319" t="n">
+        <v>0.05114963103512801</v>
+      </c>
     </row>
     <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>2015-09-09</t>
-        </is>
+      <c r="A320" s="2" t="n">
+        <v>42256</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -20282,12 +21566,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q320" t="n">
+        <v>2969</v>
+      </c>
+      <c r="R320" t="n">
+        <v>0.05135463930245891</v>
+      </c>
     </row>
     <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>2015-09-13</t>
-        </is>
+      <c r="A321" s="2" t="n">
+        <v>42260</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -20338,12 +21626,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q321" t="n">
+        <v>2965</v>
+      </c>
+      <c r="R321" t="n">
+        <v>0.0515604692451142</v>
+      </c>
     </row>
     <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>2015-09-16</t>
-        </is>
+      <c r="A322" s="2" t="n">
+        <v>42263</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -20394,12 +21686,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q322" t="n">
+        <v>2962</v>
+      </c>
+      <c r="R322" t="n">
+        <v>0.05171538290715736</v>
+      </c>
     </row>
     <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>2015-09-20</t>
-        </is>
+      <c r="A323" s="2" t="n">
+        <v>42267</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -20450,12 +21746,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q323" t="n">
+        <v>2958</v>
+      </c>
+      <c r="R323" t="n">
+        <v>0.05192265871403207</v>
+      </c>
     </row>
     <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>2015-09-27</t>
-        </is>
+      <c r="A324" s="2" t="n">
+        <v>42274</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -20506,12 +21806,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q324" t="n">
+        <v>2951</v>
+      </c>
+      <c r="R324" t="n">
+        <v>0.05228739240361583</v>
+      </c>
     </row>
     <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>2015-10-03</t>
-        </is>
+      <c r="A325" s="2" t="n">
+        <v>42280</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -20562,12 +21866,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q325" t="n">
+        <v>2945</v>
+      </c>
+      <c r="R325" t="n">
+        <v>0.05260205981627384</v>
+      </c>
     </row>
     <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>2015-10-14</t>
-        </is>
+      <c r="A326" s="2" t="n">
+        <v>42291</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -20618,12 +21926,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q326" t="n">
+        <v>2934</v>
+      </c>
+      <c r="R326" t="n">
+        <v>0.05318387659992216</v>
+      </c>
     </row>
     <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>2015-10-18</t>
-        </is>
+      <c r="A327" s="2" t="n">
+        <v>42295</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -20674,12 +21986,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q327" t="n">
+        <v>2930</v>
+      </c>
+      <c r="R327" t="n">
+        <v>0.05339703814519708</v>
+      </c>
     </row>
     <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>2015-10-24</t>
-        </is>
+      <c r="A328" s="2" t="n">
+        <v>42301</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -20730,12 +22046,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q328" t="n">
+        <v>2924</v>
+      </c>
+      <c r="R328" t="n">
+        <v>0.05371838344593517</v>
+      </c>
     </row>
     <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>2015-11-01</t>
-        </is>
+      <c r="A329" s="2" t="n">
+        <v>42309</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -20786,12 +22106,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q329" t="n">
+        <v>2916</v>
+      </c>
+      <c r="R329" t="n">
+        <v>0.05414985409492427</v>
+      </c>
     </row>
     <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>2015-11-07</t>
-        </is>
+      <c r="A330" s="2" t="n">
+        <v>42315</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -20842,12 +22166,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q330" t="n">
+        <v>2910</v>
+      </c>
+      <c r="R330" t="n">
+        <v>0.05447572986918986</v>
+      </c>
     </row>
     <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>2015-11-18</t>
-        </is>
+      <c r="A331" s="2" t="n">
+        <v>42326</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -20898,12 +22226,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q331" t="n">
+        <v>2899</v>
+      </c>
+      <c r="R331" t="n">
+        <v>0.05507827079724649</v>
+      </c>
     </row>
     <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>2015-11-22</t>
-        </is>
+      <c r="A332" s="2" t="n">
+        <v>42330</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -20954,12 +22286,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q332" t="n">
+        <v>2895</v>
+      </c>
+      <c r="R332" t="n">
+        <v>0.05529902509469138</v>
+      </c>
     </row>
     <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>2015-11-29</t>
-        </is>
+      <c r="A333" s="2" t="n">
+        <v>42337</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -21010,12 +22346,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q333" t="n">
+        <v>2888</v>
+      </c>
+      <c r="R333" t="n">
+        <v>0.05568747626326995</v>
+      </c>
     </row>
     <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>2015-12-06</t>
-        </is>
+      <c r="A334" s="2" t="n">
+        <v>42344</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -21066,6 +22406,12 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q334" t="n">
+        <v>2881</v>
+      </c>
+      <c r="R334" t="n">
+        <v>0.05607865612932754</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
